--- a/AFFINE CAPHER.xlsx
+++ b/AFFINE CAPHER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PORTOFOLIO DAN TUGAS UNIVERSITAS\SEMESTER 3\Pak Yusuf\KEamanan Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{563FB387-D91F-4880-85CE-176829A9FB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAD086D-8070-43B1-B467-45B9BCFD6945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AI39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,19 +1050,19 @@
         <v>17</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>24</v>
@@ -1074,25 +1074,25 @@
         <v>34</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="X16">
         <v>4</v>
@@ -1133,19 +1133,19 @@
         <v>25</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>24</v>
@@ -1157,25 +1157,25 @@
         <v>34</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="X20">
         <v>8</v>
@@ -1421,19 +1421,19 @@
         <v>29</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>0</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>0</v>
@@ -1445,25 +1445,25 @@
         <v>35</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>12</v>
